--- a/2.0/Plants v2.0 Cross Index.xlsx
+++ b/2.0/Plants v2.0 Cross Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flama\PycharmProjects\dnd-fantasy-plants\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CF29DE1-763B-4F20-BADB-83DA24DABA7F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00D7000B-936B-45F0-BB8A-CBA85D85AE3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="670" xr2:uid="{C9489003-F3C6-4787-96CD-8813FFB085F8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5555" uniqueCount="669">
   <si>
     <t>Arctic</t>
   </si>
@@ -2619,15 +2619,16 @@
   <dimension ref="A1:I904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B872" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B761" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A903" sqref="A903"/>
+      <selection pane="bottomRight" activeCell="C784" sqref="C784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15209,7 +15210,9 @@
         <v>466</v>
       </c>
       <c r="B784" s="1"/>
-      <c r="C784" s="1"/>
+      <c r="C784" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
       <c r="F784" s="1"/>
